--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H2">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N2">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q2">
-        <v>102.9834530496062</v>
+        <v>500.7922598443648</v>
       </c>
       <c r="R2">
-        <v>102.9834530496062</v>
+        <v>4507.130338599283</v>
       </c>
       <c r="S2">
-        <v>0.03826059243467275</v>
+        <v>0.1143241457101304</v>
       </c>
       <c r="T2">
-        <v>0.03826059243467275</v>
+        <v>0.1143241457101304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H3">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N3">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q3">
-        <v>354.0393078282393</v>
+        <v>412.8531872266899</v>
       </c>
       <c r="R3">
-        <v>354.0393078282393</v>
+        <v>3715.678685040209</v>
       </c>
       <c r="S3">
-        <v>0.1315333023077508</v>
+        <v>0.09424883672935414</v>
       </c>
       <c r="T3">
-        <v>0.1315333023077508</v>
+        <v>0.09424883672935414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H4">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N4">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q4">
-        <v>284.9130430455927</v>
+        <v>368.0494592535733</v>
       </c>
       <c r="R4">
-        <v>284.9130430455927</v>
+        <v>3312.44513328216</v>
       </c>
       <c r="S4">
-        <v>0.1058513916215153</v>
+        <v>0.08402074748782418</v>
       </c>
       <c r="T4">
-        <v>0.1058513916215153</v>
+        <v>0.08402074748782416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H5">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N5">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q5">
-        <v>125.5034330898077</v>
+        <v>526.6024137014618</v>
       </c>
       <c r="R5">
-        <v>125.5034330898077</v>
+        <v>4739.421723313157</v>
       </c>
       <c r="S5">
-        <v>0.04662725477158312</v>
+        <v>0.1202162571243057</v>
       </c>
       <c r="T5">
-        <v>0.04662725477158312</v>
+        <v>0.1202162571243057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H6">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N6">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q6">
-        <v>431.4591059573447</v>
+        <v>434.13108055121</v>
       </c>
       <c r="R6">
-        <v>431.4591059573447</v>
+        <v>3907.17972496089</v>
       </c>
       <c r="S6">
-        <v>0.160296440995337</v>
+        <v>0.09910629394643064</v>
       </c>
       <c r="T6">
-        <v>0.160296440995337</v>
+        <v>0.09910629394643061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H7">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N7">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q7">
-        <v>347.2166059246621</v>
+        <v>387.0182292048268</v>
       </c>
       <c r="R7">
-        <v>347.2166059246621</v>
+        <v>3483.164062843441</v>
       </c>
       <c r="S7">
-        <v>0.1289985201742532</v>
+        <v>0.08835106285756052</v>
       </c>
       <c r="T7">
-        <v>0.1289985201742532</v>
+        <v>0.08835106285756049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H8">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N8">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q8">
-        <v>145.1217266109435</v>
+        <v>684.1671564659799</v>
       </c>
       <c r="R8">
-        <v>145.1217266109435</v>
+        <v>6157.504408193819</v>
       </c>
       <c r="S8">
-        <v>0.05391587746239922</v>
+        <v>0.1561861713082593</v>
       </c>
       <c r="T8">
-        <v>0.05391587746239922</v>
+        <v>0.1561861713082593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H9">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N9">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q9">
-        <v>498.9034074768177</v>
+        <v>564.0274696549499</v>
       </c>
       <c r="R9">
-        <v>498.9034074768177</v>
+        <v>5076.247226894549</v>
       </c>
       <c r="S9">
-        <v>0.1853534657509038</v>
+        <v>0.1287598946624858</v>
       </c>
       <c r="T9">
-        <v>0.1853534657509038</v>
+        <v>0.1287598946624858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H10">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N10">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q10">
-        <v>401.4923904409961</v>
+        <v>502.8179789652</v>
       </c>
       <c r="R10">
-        <v>401.4923904409961</v>
+        <v>4525.3618106868</v>
       </c>
       <c r="S10">
-        <v>0.1491631544815849</v>
+        <v>0.1147865901736493</v>
       </c>
       <c r="T10">
-        <v>0.1491631544815849</v>
+        <v>0.1147865901736493</v>
       </c>
     </row>
   </sheetData>
